--- a/vic_test/test.xlsx
+++ b/vic_test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>go to url</t>
   </si>
   <si>
@@ -45,25 +42,31 @@
     <t>enter</t>
   </si>
   <si>
-    <t>id|ctl00_tkShared_Header_txtHeaderSearchBox</t>
-  </si>
-  <si>
-    <t>https://qa.weddingshop.theknot.com/</t>
-  </si>
-  <si>
-    <t>css selector|#placeholder&gt;span</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>verify test</t>
-  </si>
-  <si>
-    <t>Sandalwood Fanaa</t>
-  </si>
-  <si>
     <t>over time</t>
+  </si>
+  <si>
+    <t>http://www.baidu.com/</t>
+  </si>
+  <si>
+    <t>id|kw</t>
+  </si>
+  <si>
+    <t>switch to</t>
+  </si>
+  <si>
+    <t>css selector|div#content_left&gt;div:nth-of-type(1)&gt;h3&gt;a:nth-of-type(1)</t>
+  </si>
+  <si>
+    <t>中s文邮箱第一品牌</t>
+  </si>
+  <si>
+    <t>verify text</t>
+  </si>
+  <si>
+    <t>share step</t>
+  </si>
+  <si>
+    <t>D:/viwang/workspace/PyTest01/vic_test/test1.xlsx|Sheet1</t>
   </si>
 </sst>
 </file>
@@ -402,16 +405,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -433,38 +436,26 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3">
+        <v>163</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -472,21 +463,45 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>12</v>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
